--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_0_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_0_33.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>42138.99360421346</v>
+        <v>2711959.714564595</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42138.99360421346</v>
+        <v>2711959.714564595</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1417664846.165399</v>
+        <v>55014354.84143221</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12385.09680326231</v>
+        <v>1164923.76230765</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24770.19360652462</v>
+        <v>2329847.524615299</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>37155.29040978693</v>
+        <v>3494771.286922951</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>50845.02002333157</v>
+        <v>4588679.108805726</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>64521.81109314075</v>
+        <v>5683612.653133236</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>78198.60216294993</v>
+        <v>6778546.197460743</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>91875.3932327591</v>
+        <v>7873479.741788246</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>105552.1843025683</v>
+        <v>8968413.286115749</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>119228.9753723776</v>
+        <v>10063346.83044325</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>132905.7664421868</v>
+        <v>11158280.37477075</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>146241.2987591798</v>
+        <v>12268055.07118628</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>159253.1272296191</v>
+        <v>13393166.1987971</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>172132.5429570845</v>
+        <v>14525137.41522058</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>186966.8401617259</v>
+        <v>15498744.59640595</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>201818.4263115239</v>
+        <v>16470431.34022585</v>
       </c>
     </row>
   </sheetData>
